--- a/jpcore-r4/feature/Observationリソースカテゴリ変更/CodeSystem-jp-observation-bodymeasurement-code-cs.xlsx
+++ b/jpcore-r4/feature/Observationリソースカテゴリ変更/CodeSystem-jp-observation-bodymeasurement-code-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2023-11-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,9 +153,15 @@
     <t>体重</t>
   </si>
   <si>
+    <t>体重(Kg)</t>
+  </si>
+  <si>
     <t>31000297</t>
   </si>
   <si>
+    <t>体重(g)</t>
+  </si>
+  <si>
     <t>31000298</t>
   </si>
   <si>
@@ -186,9 +192,15 @@
     <t>開口度</t>
   </si>
   <si>
+    <t>開口度(mm)</t>
+  </si>
+  <si>
     <t>31000902</t>
   </si>
   <si>
+    <t>開口度(横指)</t>
+  </si>
+  <si>
     <t>31001697</t>
   </si>
   <si>
@@ -771,34 +783,58 @@
     <t>体重（透析前）</t>
   </si>
   <si>
+    <t>体重（透析前）(Kg)</t>
+  </si>
+  <si>
     <t>31003722</t>
   </si>
   <si>
+    <t>体重（透析前）(g)</t>
+  </si>
+  <si>
     <t>31003723</t>
   </si>
   <si>
     <t>体重（透析後）</t>
   </si>
   <si>
+    <t>体重（透析後）(Kg)</t>
+  </si>
+  <si>
     <t>31003724</t>
   </si>
   <si>
+    <t>体重（透析後）(g)</t>
+  </si>
+  <si>
     <t>31003725</t>
   </si>
   <si>
     <t>目標体重</t>
   </si>
   <si>
+    <t>目標体重(Kg)</t>
+  </si>
+  <si>
     <t>31003726</t>
   </si>
   <si>
+    <t>目標体重(g)</t>
+  </si>
+  <si>
     <t>31003727</t>
   </si>
   <si>
     <t>体重変化量</t>
   </si>
   <si>
+    <t>体重変化量(Kg)</t>
+  </si>
+  <si>
     <t>31003728</t>
+  </si>
+  <si>
+    <t>体重変化量(g)</t>
   </si>
   <si>
     <t>31006116</t>
@@ -1169,29 +1205,33 @@
       <c r="C2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1200,10 +1240,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1212,10 +1252,10 @@
         <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1224,10 +1264,10 @@
         <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1236,34 +1276,38 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1272,10 +1316,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1284,10 +1328,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -1296,10 +1340,10 @@
         <v>43</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1308,10 +1352,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -1320,10 +1364,10 @@
         <v>43</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -1332,10 +1376,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -1344,10 +1388,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -1356,10 +1400,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -1368,10 +1412,10 @@
         <v>43</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1380,10 +1424,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -1392,10 +1436,10 @@
         <v>43</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1404,10 +1448,10 @@
         <v>43</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -1416,10 +1460,10 @@
         <v>43</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2"/>
     </row>
@@ -1428,10 +1472,10 @@
         <v>43</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -1440,10 +1484,10 @@
         <v>43</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1452,10 +1496,10 @@
         <v>43</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1464,10 +1508,10 @@
         <v>43</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2"/>
     </row>
@@ -1476,10 +1520,10 @@
         <v>43</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1488,10 +1532,10 @@
         <v>43</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -1500,10 +1544,10 @@
         <v>43</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -1512,10 +1556,10 @@
         <v>43</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -1524,10 +1568,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -1536,10 +1580,10 @@
         <v>43</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1548,10 +1592,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -1560,10 +1604,10 @@
         <v>43</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2"/>
     </row>
@@ -1572,10 +1616,10 @@
         <v>43</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D36" s="2"/>
     </row>
@@ -1584,10 +1628,10 @@
         <v>43</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2"/>
     </row>
@@ -1596,10 +1640,10 @@
         <v>43</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D38" s="2"/>
     </row>
@@ -1608,10 +1652,10 @@
         <v>43</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="2"/>
     </row>
@@ -1620,10 +1664,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2"/>
     </row>
@@ -1632,10 +1676,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2"/>
     </row>
@@ -1644,10 +1688,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1656,10 +1700,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2"/>
     </row>
@@ -1668,10 +1712,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1680,10 +1724,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2"/>
     </row>
@@ -1692,10 +1736,10 @@
         <v>43</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D46" s="2"/>
     </row>
@@ -1704,10 +1748,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2"/>
     </row>
@@ -1716,10 +1760,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D48" s="2"/>
     </row>
@@ -1728,10 +1772,10 @@
         <v>43</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1740,10 +1784,10 @@
         <v>43</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1752,10 +1796,10 @@
         <v>43</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1764,10 +1808,10 @@
         <v>43</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -1776,10 +1820,10 @@
         <v>43</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1788,10 +1832,10 @@
         <v>43</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1800,10 +1844,10 @@
         <v>43</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -1812,10 +1856,10 @@
         <v>43</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -1824,10 +1868,10 @@
         <v>43</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -1836,10 +1880,10 @@
         <v>43</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -1848,10 +1892,10 @@
         <v>43</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -1860,10 +1904,10 @@
         <v>43</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -1872,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -1884,10 +1928,10 @@
         <v>43</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -1896,10 +1940,10 @@
         <v>43</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -1908,10 +1952,10 @@
         <v>43</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -1920,10 +1964,10 @@
         <v>43</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2"/>
     </row>
@@ -1932,10 +1976,10 @@
         <v>43</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2"/>
     </row>
@@ -1944,10 +1988,10 @@
         <v>43</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -1956,10 +2000,10 @@
         <v>43</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D68" s="2"/>
     </row>
@@ -1968,10 +2012,10 @@
         <v>43</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D69" s="2"/>
     </row>
@@ -1980,10 +2024,10 @@
         <v>43</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D70" s="2"/>
     </row>
@@ -1992,10 +2036,10 @@
         <v>43</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2004,10 +2048,10 @@
         <v>43</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -2016,10 +2060,10 @@
         <v>43</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D73" s="2"/>
     </row>
@@ -2028,10 +2072,10 @@
         <v>43</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D74" s="2"/>
     </row>
@@ -2040,10 +2084,10 @@
         <v>43</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -2052,10 +2096,10 @@
         <v>43</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -2064,10 +2108,10 @@
         <v>43</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -2076,10 +2120,10 @@
         <v>43</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -2088,10 +2132,10 @@
         <v>43</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D79" s="2"/>
     </row>
@@ -2100,10 +2144,10 @@
         <v>43</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D80" s="2"/>
     </row>
@@ -2112,10 +2156,10 @@
         <v>43</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D81" s="2"/>
     </row>
@@ -2124,10 +2168,10 @@
         <v>43</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D82" s="2"/>
     </row>
@@ -2136,10 +2180,10 @@
         <v>43</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D83" s="2"/>
     </row>
@@ -2148,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D84" s="2"/>
     </row>
@@ -2160,10 +2204,10 @@
         <v>43</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D85" s="2"/>
     </row>
@@ -2172,10 +2216,10 @@
         <v>43</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D86" s="2"/>
     </row>
@@ -2184,10 +2228,10 @@
         <v>43</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D87" s="2"/>
     </row>
@@ -2196,10 +2240,10 @@
         <v>43</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D88" s="2"/>
     </row>
@@ -2208,10 +2252,10 @@
         <v>43</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D89" s="2"/>
     </row>
@@ -2220,10 +2264,10 @@
         <v>43</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D90" s="2"/>
     </row>
@@ -2232,10 +2276,10 @@
         <v>43</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D91" s="2"/>
     </row>
@@ -2244,10 +2288,10 @@
         <v>43</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -2256,10 +2300,10 @@
         <v>43</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D93" s="2"/>
     </row>
@@ -2268,10 +2312,10 @@
         <v>43</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2280,10 +2324,10 @@
         <v>43</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -2292,10 +2336,10 @@
         <v>43</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -2304,10 +2348,10 @@
         <v>43</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D97" s="2"/>
     </row>
@@ -2316,10 +2360,10 @@
         <v>43</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D98" s="2"/>
     </row>
@@ -2328,10 +2372,10 @@
         <v>43</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -2340,10 +2384,10 @@
         <v>43</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D100" s="2"/>
     </row>
@@ -2352,10 +2396,10 @@
         <v>43</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D101" s="2"/>
     </row>
@@ -2364,10 +2408,10 @@
         <v>43</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D102" s="2"/>
     </row>
@@ -2376,10 +2420,10 @@
         <v>43</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D103" s="2"/>
     </row>
@@ -2388,10 +2432,10 @@
         <v>43</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D104" s="2"/>
     </row>
@@ -2400,10 +2444,10 @@
         <v>43</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D105" s="2"/>
     </row>
@@ -2412,106 +2456,122 @@
         <v>43</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="D106" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>256</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>261</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="D109" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>263</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="D111" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>268</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>271</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="D113" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>273</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
         <v>43</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D114" s="2"/>
     </row>
@@ -2520,10 +2580,10 @@
         <v>43</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -2532,10 +2592,10 @@
         <v>43</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -2544,10 +2604,10 @@
         <v>43</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D117" s="2"/>
     </row>
